--- a/Datos Sentadilla Frontal.xlsx
+++ b/Datos Sentadilla Frontal.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="13">
   <si>
     <t>Ejercicio</t>
   </si>
@@ -414,7 +414,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L98"/>
+  <dimension ref="A1:L106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4141,6 +4141,310 @@
         <v>83.73</v>
       </c>
     </row>
+    <row r="99" spans="1:12">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99" s="2">
+        <v>44991</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <v>60</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99" t="s">
+        <v>12</v>
+      </c>
+      <c r="H99">
+        <v>0.78</v>
+      </c>
+      <c r="I99">
+        <v>1.6</v>
+      </c>
+      <c r="J99">
+        <v>459.11</v>
+      </c>
+      <c r="K99">
+        <v>97.65000000000001</v>
+      </c>
+      <c r="L99">
+        <v>82.62</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>11</v>
+      </c>
+      <c r="C100" s="2">
+        <v>44991</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>60</v>
+      </c>
+      <c r="F100">
+        <v>2</v>
+      </c>
+      <c r="G100" t="s">
+        <v>12</v>
+      </c>
+      <c r="H100">
+        <v>0.68</v>
+      </c>
+      <c r="I100">
+        <v>1.36</v>
+      </c>
+      <c r="J100">
+        <v>400.25</v>
+      </c>
+      <c r="K100">
+        <v>89.31999999999999</v>
+      </c>
+      <c r="L100">
+        <v>76.06</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101" s="2">
+        <v>44991</v>
+      </c>
+      <c r="D101">
+        <v>2</v>
+      </c>
+      <c r="E101">
+        <v>85</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101" t="s">
+        <v>12</v>
+      </c>
+      <c r="H101">
+        <v>0.51</v>
+      </c>
+      <c r="I101">
+        <v>1.26</v>
+      </c>
+      <c r="J101">
+        <v>425.26</v>
+      </c>
+      <c r="K101">
+        <v>85.77</v>
+      </c>
+      <c r="L101">
+        <v>94.95</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102" s="2">
+        <v>44991</v>
+      </c>
+      <c r="D102">
+        <v>2</v>
+      </c>
+      <c r="E102">
+        <v>85</v>
+      </c>
+      <c r="F102">
+        <v>2</v>
+      </c>
+      <c r="G102" t="s">
+        <v>12</v>
+      </c>
+      <c r="H102">
+        <v>0.41</v>
+      </c>
+      <c r="I102">
+        <v>1.02</v>
+      </c>
+      <c r="J102">
+        <v>341.88</v>
+      </c>
+      <c r="K102">
+        <v>81.04000000000001</v>
+      </c>
+      <c r="L102">
+        <v>88.73999999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>11</v>
+      </c>
+      <c r="C103" s="2">
+        <v>44991</v>
+      </c>
+      <c r="D103">
+        <v>3</v>
+      </c>
+      <c r="E103">
+        <v>80</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103" t="s">
+        <v>12</v>
+      </c>
+      <c r="H103">
+        <v>0.57</v>
+      </c>
+      <c r="I103">
+        <v>1.26</v>
+      </c>
+      <c r="J103">
+        <v>447.34</v>
+      </c>
+      <c r="K103">
+        <v>82.65000000000001</v>
+      </c>
+      <c r="L103">
+        <v>93.28</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>11</v>
+      </c>
+      <c r="C104" s="2">
+        <v>44991</v>
+      </c>
+      <c r="D104">
+        <v>3</v>
+      </c>
+      <c r="E104">
+        <v>80</v>
+      </c>
+      <c r="F104">
+        <v>2</v>
+      </c>
+      <c r="G104" t="s">
+        <v>12</v>
+      </c>
+      <c r="H104">
+        <v>0.5</v>
+      </c>
+      <c r="I104">
+        <v>1.08</v>
+      </c>
+      <c r="J104">
+        <v>392.4</v>
+      </c>
+      <c r="K104">
+        <v>83.3</v>
+      </c>
+      <c r="L104">
+        <v>88.73999999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>11</v>
+      </c>
+      <c r="C105" s="2">
+        <v>44991</v>
+      </c>
+      <c r="D105">
+        <v>4</v>
+      </c>
+      <c r="E105">
+        <v>85</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="G105" t="s">
+        <v>12</v>
+      </c>
+      <c r="H105">
+        <v>0.59</v>
+      </c>
+      <c r="I105">
+        <v>1.3</v>
+      </c>
+      <c r="J105">
+        <v>491.97</v>
+      </c>
+      <c r="K105">
+        <v>80.84</v>
+      </c>
+      <c r="L105">
+        <v>100.57</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>11</v>
+      </c>
+      <c r="C106" s="2">
+        <v>44991</v>
+      </c>
+      <c r="D106">
+        <v>4</v>
+      </c>
+      <c r="E106">
+        <v>85</v>
+      </c>
+      <c r="F106">
+        <v>2</v>
+      </c>
+      <c r="G106" t="s">
+        <v>12</v>
+      </c>
+      <c r="H106">
+        <v>0.45</v>
+      </c>
+      <c r="I106">
+        <v>1.08</v>
+      </c>
+      <c r="J106">
+        <v>375.23</v>
+      </c>
+      <c r="K106">
+        <v>81.23</v>
+      </c>
+      <c r="L106">
+        <v>91.12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Datos Sentadilla Frontal.xlsx
+++ b/Datos Sentadilla Frontal.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="14">
   <si>
     <t>Ejercicio</t>
   </si>
@@ -53,6 +54,9 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>Porcentaje de fatiga</t>
   </si>
 </sst>
 </file>
@@ -4448,4 +4452,135 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>44956</v>
+      </c>
+      <c r="C2">
+        <v>13.28449328449329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>44964</v>
+      </c>
+      <c r="C3">
+        <v>12.57682177348552</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>44966</v>
+      </c>
+      <c r="C4">
+        <v>20.94769321187188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>44971</v>
+      </c>
+      <c r="C5">
+        <v>17.34972677595628</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>44976</v>
+      </c>
+      <c r="C6">
+        <v>6.451612903225811</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>44978</v>
+      </c>
+      <c r="C7">
+        <v>18.64406779661016</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>44980</v>
+      </c>
+      <c r="C8">
+        <v>18.57683982683983</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>44984</v>
+      </c>
+      <c r="C9">
+        <v>14.3905360886493</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>44986</v>
+      </c>
+      <c r="C10">
+        <v>16.12903225806451</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>44991</v>
+      </c>
+      <c r="C11">
+        <v>21.66832834828847</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>